--- a/biology/Botanique/Catophractes_alexandri/Catophractes_alexandri.xlsx
+++ b/biology/Botanique/Catophractes_alexandri/Catophractes_alexandri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Catophractes alexandri est une plante de la famille des Bignoniaceae vivant en Afrique. C'est l'espèce la plus réputée du genre Catophractes.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire de l'espèce</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Découverte par le botaniste écossais David Don qui dédia le nom de l'espèce à son compatriote Sir James Edward Alexander.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Afrique tropicale et du sud.
 </t>
@@ -575,8 +591,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Philatélie
-Cette espèce est représentée sur un timbre poste du Sud-Ouest africain de 1953 (one penny) émis, avec quatre autres valeurs, pour le couronnement de la reine Elisabeth II.
+          <t>Philatélie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est représentée sur un timbre poste du Sud-Ouest africain de 1953 (one penny) émis, avec quatre autres valeurs, pour le couronnement de la reine Elisabeth II.
 </t>
         </is>
       </c>
